--- a/odds/IME_bot/management/commands/wpcontacts.xlsx
+++ b/odds/IME_bot/management/commands/wpcontacts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karanveer.singh\PycharmProjects\APIs\odds\IME_bot\management\commands\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karanveer.singh\PycharmProjects\APIs\seleniumapi\odds\IME_bot\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,15 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Messages</t>
   </si>
   <si>
-    <t>this is automated text</t>
+    <t>Contact</t>
   </si>
   <si>
-    <t>Contact</t>
+    <t>Dear Store Owners,  
+ This is to inform you that Amazon festival sale is live now. i.e.,  (From 5th August, 2022 to 10th August, 2022).
+We are requesting you to place orders as much as possible because this sale is an opportunity to make extra money as incentive.</t>
   </si>
 </sst>
 </file>
@@ -56,7 +58,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -64,12 +66,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -85,6 +123,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8991600" y="190500"/>
+          <a:ext cx="5686425" cy="5505450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,51 +437,1016 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="114.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
+      <c r="A1" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>7976583223</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>9413516066</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>9982832466</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
+      <c r="A3" s="3">
+        <v>9810969085</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>9413516066</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
+      <c r="A4" s="1">
+        <v>8130135822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>9850702061</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>8219138580</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>9882803444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>9817021144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>9318869926</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9818524534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>8354027255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>9558899644</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>7567816157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>9714096123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>9759866383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>7899174074</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>7011723838</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>9789034870</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>9898164762</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>8240202400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>8240202400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>7249272374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>9736300535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>8219400271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>8628030100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>9568021481</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>9718876373</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>9817455486</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>9805863064</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>7018117801</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>9817455486</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>9805615550</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>8725224021</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>9445689549</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>9433231661</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>7980983286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>9882765117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>9930104347</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>8800563266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>7011147706</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>9540390482</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>9916528585</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>9805108823</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>9013061288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>7876844996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>8376057064</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>7018314583</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>9000991421</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>7018741625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>7807820511</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>8826233331</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>9604265907</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>9671718071</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>8800780153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>7973895794</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>8888647422</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>8317391314</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>8288905866</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>8097775121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>8700972447</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>9560032265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>9623075818</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>9816113499</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>9654435653</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>9912752948</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>9890538750</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>7774068802</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>7405281129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>7600911793</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>9555018111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>9780576798</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>9766694400</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>8888633443</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>8700702475</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>9067508029</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>9980794713</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>9742008501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>7483426055</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>7218066931</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>8356051165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>9790737993</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>7894990879</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>9882867497</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>8894876441</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>9658196000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>8894867008</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>7015100023</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>9582952738</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>9599168755</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>9309731001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>8999880776</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>9892620905</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>8861871633</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>9080834566</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>7590019991</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>8270134296</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>8130997841</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>7358410271</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>8971650715</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>7449006649</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>8378028992</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>7022068136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>7087590468</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>7018227212</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>8329210389</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>9967741624</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>9967075325</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>9816220882</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>8320499550</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>9738463696</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>9714003995</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>9882644449</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>9654365573</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>8894878279</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>8904627925</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>8904483755</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>7057644870</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>9606850031</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>7776825993</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>9915333309</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="6">
+        <v>9871615533</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="6">
+        <v>9560924597</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="6">
+        <v>7073943954</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="6">
+        <v>7041426288</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="6">
+        <v>7228883181</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="6">
+        <v>8176801955</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="6">
+        <v>9041620541</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="6">
+        <v>8630219701</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="6">
+        <v>6350107693</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="6">
+        <v>9700761919</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="6">
+        <v>7259755086</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="6">
+        <v>9035689408</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="6">
+        <v>9743955783</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="6">
+        <v>8867989400</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="6">
+        <v>7708875087</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="6">
+        <v>7428020192</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="6">
+        <v>7483230296</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="6">
+        <v>9149952313</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="6">
+        <v>7619166480</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="6">
+        <v>8002828730</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="6">
+        <v>7718929331</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="6">
+        <v>7069458006</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="6">
+        <v>8860328377</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="6">
+        <v>7058228914</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="6">
+        <v>7338210081</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>9650769825</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="6">
+        <v>8123743267</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="6">
+        <v>9876066714</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="6">
+        <v>9353315961</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="6">
+        <v>7639045845</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="6">
+        <v>9206454660</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="6">
+        <v>8779681437</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="6">
+        <v>8888345873</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="6">
+        <v>8421074573</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="6">
+        <v>9459277450</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="6">
+        <v>9779944133</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="6">
+        <v>6364654728</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="6">
+        <v>8433512595</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="6">
+        <v>9448784074</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="6">
+        <v>9625465787</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="6">
+        <v>7405165831</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="6">
+        <v>9667860050</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="6">
+        <v>9503411683</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="6">
+        <v>7208323147</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="6">
+        <v>8291771412</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="6">
+        <v>9702269603</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="6">
+        <v>8826166208</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="6">
+        <v>8587018148</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="6">
+        <v>8278769292</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="6">
+        <v>7088074965</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="6">
+        <v>9620297281</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="6">
+        <v>9537166312</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="6">
+        <v>8882305657</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="6">
+        <v>8287960782</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="6">
+        <v>6360930482</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="6">
+        <v>8448409131</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="6">
+        <v>7735588594</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="6">
+        <v>8544883586</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="6">
+        <v>9821255763</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="6">
+        <v>9121601510</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="6">
+        <v>9986733503</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="6">
+        <v>7048923527</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="6">
+        <v>7718987520</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="6">
+        <v>8618413930</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="6">
+        <v>8088267438</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="6">
+        <v>6302102338</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="6">
+        <v>9113573955</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>9500180934</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>9611298786</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>9910849683</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>8320990138</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="6">
+        <v>7428020192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>9898824841</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="6">
+        <v>7048923527</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="6">
+        <v>8652159774</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="6">
+        <v>9353509796</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="6">
+        <v>8091734282</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>8073367202</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>